--- a/wishlist_raluca.xlsx
+++ b/wishlist_raluca.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/Raluca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{42DA1030-8455-469F-B16E-3C80CA50A313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98A53996-B82C-44B5-A4A3-AC78AF1C0E14}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="13_ncr:1_{42DA1030-8455-469F-B16E-3C80CA50A313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E017F02F-95B7-4FC4-9B47-DDFCF2344D8C}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="5010" windowWidth="27570" windowHeight="17145" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="3120" yWindow="720" windowWidth="38595" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Raluca" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Image</t>
   </si>
@@ -90,6 +90,27 @@
   </si>
   <si>
     <t>Geanta Mickey Mouse</t>
+  </si>
+  <si>
+    <t>https://www.desigual.com/dw/image/v2/BCVV_PRD/on/demandware.static/-/Sites-desigual-m-catalog/default/dwfb405b16/images/B2C/23SAXP44_2000_3.jpg?sfrm=jpg&amp;v=webp10&amp;sw=375</t>
+  </si>
+  <si>
+    <t>https://www.desigual.com/de_CH/23SAXP442000.html</t>
+  </si>
+  <si>
+    <t>85.95 CHF</t>
+  </si>
+  <si>
+    <t>https://wetbrush.com/collections/go-green/products/go-green-treatment-and-shine-brush?variant=44553084469494</t>
+  </si>
+  <si>
+    <t>https://wetbrush.com/cdn/shop/products/GO_GREEN_TREATMENT-Paddle-ORANGE-Hair_Brush-BIO833COCON-Wet_Brush-Front_2048x2048.jpg?v=1667403413</t>
+  </si>
+  <si>
+    <t>Perie par (culoare COCONUT)</t>
+  </si>
+  <si>
+    <t>16.99 USD</t>
   </si>
 </sst>
 </file>
@@ -527,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,8 +623,29 @@
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D5">

--- a/wishlist_raluca.xlsx
+++ b/wishlist_raluca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/Raluca/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="13_ncr:1_{42DA1030-8455-469F-B16E-3C80CA50A313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85BEDEDB-30BF-423C-B328-A67269223A06}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A20EE2F-90BA-434E-9AAE-8AFD3FB689AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38175" yWindow="0" windowWidth="19425" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="23400" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Raluca" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Image</t>
   </si>
@@ -198,6 +198,30 @@
   </si>
   <si>
     <t>39 CHF</t>
+  </si>
+  <si>
+    <t>https://amzn.eu/d/fxzOrlU</t>
+  </si>
+  <si>
+    <t>https://amzn.eu/d/hKdAdfZ</t>
+  </si>
+  <si>
+    <t>Shiatsu Heat Massager</t>
+  </si>
+  <si>
+    <t>Laneige Lip Sleeping Mask</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51R2w6yMcaL._SX450_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61Hx-AZNQ-L._AC_SX450_.jpg</t>
+  </si>
+  <si>
+    <t>39.97 EUR</t>
+  </si>
+  <si>
+    <t>18.02 EUR</t>
   </si>
 </sst>
 </file>
@@ -332,10 +356,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -635,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,6 +852,34 @@
         <v>52</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D5">
     <sortCondition ref="D3:D5"/>

--- a/wishlist_raluca.xlsx
+++ b/wishlist_raluca.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/Raluca/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="13_ncr:1_{42DA1030-8455-469F-B16E-3C80CA50A313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{106B817D-EC27-DE4D-A3C4-A4145D216866}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4504B6-1BFD-47A6-9831-30429CE09CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="580" windowWidth="28800" windowHeight="16060" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="23400" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Raluca" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Raluca!$A$1:$E$16</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>Image</t>
   </si>
@@ -48,9 +51,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Reserved</t>
   </si>
   <si>
     <t>https://media.douglas.ch/medias/WEPU70723724-0-global.jpg?context=bWFzdGVyfGltYWdlc3wzNzE3NHxpbWFnZS9qcGVnfGFHRXhMMmcwWVM4eE1qSXdNekl6TURjNE9UWTJNaTlYUlZCVk56QTNNak0zTWpSZk1GOW5iRzlpWVd3dWFuQm58M2RkN2MwMDUxYTdjMzllN2NlNWY0OGQyMjM1YWQ0YjBiZWY1MmE0NGMyNTBhMmUwYjViYWM2NTZkMGE2NWM5NA&amp;grid=true</t>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>18.02 EUR</t>
+  </si>
+  <si>
+    <t>Reserved / bought</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -368,10 +374,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -674,16 +676,17 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:D16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="26.1640625" customWidth="1"/>
-    <col min="3" max="3" width="53.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -697,220 +700,242 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="B13" t="s">
         <v>49</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>56</v>
       </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>57</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>59</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>61</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>62</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>63</v>
       </c>
-      <c r="D16" t="s">
-        <v>64</v>
+      <c r="E16" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E16" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D5">
     <sortCondition ref="D3:D5"/>
   </sortState>

--- a/wishlist_raluca.xlsx
+++ b/wishlist_raluca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/Raluca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4504B6-1BFD-47A6-9831-30429CE09CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{DC4504B6-1BFD-47A6-9831-30429CE09CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1BD8DBF-CFDF-4E2B-9DDE-933B96646067}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="23400" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="4680" yWindow="0" windowWidth="28845" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Raluca" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>Image</t>
   </si>
@@ -240,6 +240,39 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/en-ch/product/succulents-10309</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/en-ch/product/exotic-peacock-31157</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/en-ch/product/tiny-plants-10329</t>
+  </si>
+  <si>
+    <t>60 CHF</t>
+  </si>
+  <si>
+    <t>23 CHF</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/cdn/cs/set/assets/bltd9d7b87d1b108e5e/10309_alt1.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=1200&amp;height=1200&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/cdn/cs/set/assets/bltfa6c9196a514bb03/31157.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=1200&amp;height=1200&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>https://www.lego.com/cdn/cs/set/assets/bltb2f845ffd52a25b0/10329.png?format=webply&amp;fit=bounds&amp;quality=75&amp;width=1200&amp;height=1200&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>LEGO Succulents 10309</t>
+  </si>
+  <si>
+    <t>LEGO Tiny Plants 10329</t>
+  </si>
+  <si>
+    <t>LEGO Exotic Peacock 31157</t>
   </si>
 </sst>
 </file>
@@ -376,10 +409,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -417,7 +454,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -523,7 +560,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -665,7 +702,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -673,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,6 +936,9 @@
       <c r="D14" t="s">
         <v>54</v>
       </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -932,6 +972,48 @@
       </c>
       <c r="E16" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/wishlist_raluca.xlsx
+++ b/wishlist_raluca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/Raluca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{DC4504B6-1BFD-47A6-9831-30429CE09CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1BD8DBF-CFDF-4E2B-9DDE-933B96646067}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{DC4504B6-1BFD-47A6-9831-30429CE09CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4E1EE22-97DE-4841-B187-868CE1E74263}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="0" windowWidth="28845" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Raluca" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="98">
   <si>
     <t>Image</t>
   </si>
@@ -273,6 +272,69 @@
   </si>
   <si>
     <t>LEGO Exotic Peacock 31157</t>
+  </si>
+  <si>
+    <t>https://www.galaxus.ch/im/productimages/1/5/9/1/5/3/9/8/8/7/2/6/3/7/8/1/9/0/6/bf70da80-90ba-4ff6-a7e0-7da33a3eb186_cropped.jpg?impolicy=product&amp;resizeWidth=720</t>
+  </si>
+  <si>
+    <t>80 - 120 CHF</t>
+  </si>
+  <si>
+    <t>https://img01.ztat.net/article/spp-media-p1/fa20de609217474a85fe92b8da997df0/8a35b97c476f4d8aa1b9765d103a51b3.jpg?imwidth=1800&amp;filter=packshot</t>
+  </si>
+  <si>
+    <t>https://fr.zalando.ch/anna-field-chaussons-grey-an611d024-c11.html?_rfl=de</t>
+  </si>
+  <si>
+    <t>34 CHF</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B01EZAC8P0?ref_=cm_sw_r_apin_ct_12HQWTDZT7YJGK9MFAPB_1&amp;language=en_US&amp;th=1</t>
+  </si>
+  <si>
+    <t>Papuci 40</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B00VRK60ZQ?ref_=cm_sw_r_apin_ct_12HQWTDZT7YJGK9MFAPB&amp;language=en_US&amp;th=1</t>
+  </si>
+  <si>
+    <t>Set linguri</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B09C29PHSW?ref=cm_sw_r_cso_wa_apin_dp_4MN968FMNN3XZE83RGKE&amp;ref_=cm_sw_r_cso_wa_apin_dp_4MN968FMNN3XZE83RGKE&amp;social_share=cm_sw_r_cso_wa_apin_dp_4MN968FMNN3XZE83RGKE&amp;starsLeft=1&amp;skipTwisterOG=1</t>
+  </si>
+  <si>
+    <t>6 EUR</t>
+  </si>
+  <si>
+    <t>Pensule</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B08B4BM4DW?ref=cm_sw_r_cso_wa_apin_dp_Q9MP39GHH5HJTFKPPC1V&amp;ref_=cm_sw_r_cso_wa_apin_dp_Q9MP39GHH5HJTFKPPC1V&amp;social_share=cm_sw_r_cso_wa_apin_dp_Q9MP39GHH5HJTFKPPC1V&amp;starsLeft=1&amp;skipTwisterOG=1&amp;th=1</t>
+  </si>
+  <si>
+    <t>29 EUR</t>
+  </si>
+  <si>
+    <t>Lingura</t>
+  </si>
+  <si>
+    <t>Fata perna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantar </t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61g0EHYpeWL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/615gJtEdGFL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61dBnRJ8qPL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71bxju0FpgL._AC_SL1200_.jpg</t>
   </si>
 </sst>
 </file>
@@ -710,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,6 +1078,87 @@
         <v>69</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E16" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D5">

--- a/wishlist_raluca.xlsx
+++ b/wishlist_raluca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/Raluca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{DC4504B6-1BFD-47A6-9831-30429CE09CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4E1EE22-97DE-4841-B187-868CE1E74263}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{DC4504B6-1BFD-47A6-9831-30429CE09CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9FAB150-029F-43C3-AEEB-535291F3C038}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="98">
   <si>
     <t>Image</t>
   </si>
@@ -775,7 +775,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,6 +815,9 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -843,6 +846,9 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -874,6 +880,9 @@
       <c r="D6" t="s">
         <v>23</v>
       </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -956,6 +965,9 @@
       <c r="D11" t="s">
         <v>43</v>
       </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -970,6 +982,9 @@
       <c r="D12" t="s">
         <v>47</v>
       </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -983,6 +998,9 @@
       </c>
       <c r="D13" t="s">
         <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">

--- a/wishlist_raluca.xlsx
+++ b/wishlist_raluca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/Raluca/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{DC4504B6-1BFD-47A6-9831-30429CE09CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9FAB150-029F-43C3-AEEB-535291F3C038}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560B9351-0AE1-4F79-8AFA-A848A4B6CA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="23400" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Raluca" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="105">
   <si>
     <t>Image</t>
   </si>
@@ -335,6 +335,27 @@
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/71bxju0FpgL._AC_SL1200_.jpg</t>
+  </si>
+  <si>
+    <t>https://creativeclass.carandache.com/products/lavaux-a-swiss-landscape</t>
+  </si>
+  <si>
+    <t>19 CHF</t>
+  </si>
+  <si>
+    <t>https://creativeclass.carandache.com/products/poetic-lily</t>
+  </si>
+  <si>
+    <t>https://vhx.imgix.net/carandache/assets/0803cd32-cc66-42e9-98f6-246c5c876cb2.jpg?auto=format%2Ccompress&amp;fit=crop&amp;h=720&amp;w=1280</t>
+  </si>
+  <si>
+    <t>Curs Poetic Lily</t>
+  </si>
+  <si>
+    <t>https://vhx.imgix.net/carandache/assets/6b347c23-113e-4831-af8f-fc01524383b1.jpg?auto=format%2Ccompress&amp;fit=crop&amp;h=720&amp;w=1280</t>
+  </si>
+  <si>
+    <t>Curs Lavaux</t>
   </si>
 </sst>
 </file>
@@ -471,14 +492,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -516,7 +533,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -622,7 +639,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -764,7 +781,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -772,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,6 +1194,34 @@
         <v>90</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E16" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D5">

--- a/wishlist_raluca.xlsx
+++ b/wishlist_raluca.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/ralucawishlist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560B9351-0AE1-4F79-8AFA-A848A4B6CA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{560B9351-0AE1-4F79-8AFA-A848A4B6CA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B88B8D2-9B9E-47AC-B5CA-4E58E6808D9E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="23400" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Raluca" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Raluca!$A$1:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Raluca!$A$1:$E$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="105">
   <si>
     <t>Image</t>
   </si>
@@ -451,7 +451,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -493,9 +493,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -533,7 +533,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -639,7 +639,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -781,7 +781,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -789,10 +789,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,7 +820,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -850,7 +851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -867,7 +868,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -884,7 +885,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -901,7 +902,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -918,7 +919,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -935,7 +936,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -952,7 +953,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -969,7 +970,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
@@ -986,7 +987,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>44</v>
       </c>
@@ -1003,7 +1004,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
@@ -1020,7 +1021,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
@@ -1037,7 +1038,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1054,7 +1055,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -1071,7 +1072,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>74</v>
       </c>
@@ -1085,7 +1086,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>76</v>
       </c>
@@ -1099,7 +1100,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>75</v>
       </c>
@@ -1112,8 +1113,11 @@
       <c r="D19" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>93</v>
       </c>
@@ -1124,7 +1128,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>83</v>
       </c>
@@ -1137,8 +1141,11 @@
       <c r="D21" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>91</v>
       </c>
@@ -1151,8 +1158,11 @@
       <c r="D22" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>85</v>
       </c>
@@ -1166,7 +1176,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>88</v>
       </c>
@@ -1179,8 +1189,11 @@
       <c r="D24" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>92</v>
       </c>
@@ -1194,7 +1207,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>104</v>
       </c>
@@ -1208,7 +1221,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>102</v>
       </c>
@@ -1223,7 +1236,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E16" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}"/>
+  <autoFilter ref="A1:E27" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D5">
     <sortCondition ref="D3:D5"/>
   </sortState>

--- a/wishlist_raluca.xlsx
+++ b/wishlist_raluca.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Documents/Wishlist Cadouri/ralucawishlist/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{560B9351-0AE1-4F79-8AFA-A848A4B6CA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B88B8D2-9B9E-47AC-B5CA-4E58E6808D9E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C57154F-16C5-4CE3-90AC-E47AFE6544F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19395" windowHeight="23385" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Raluca" sheetId="1" r:id="rId1"/>
+    <sheet name="Wishlist Raluca" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Raluca!$A$1:$E$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wishlist Raluca'!$A$1:$E$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="105">
   <si>
     <t>Image</t>
   </si>
@@ -793,7 +793,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,6 +1205,9 @@
       </c>
       <c r="D25" t="s">
         <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">

--- a/wishlist_raluca.xlsx
+++ b/wishlist_raluca.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C57154F-16C5-4CE3-90AC-E47AFE6544F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0177418F-3676-4CA7-B352-55EB2C9C7281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19395" windowHeight="23385" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="28590" yWindow="0" windowWidth="29010" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Wishlist Raluca" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wishlist Raluca'!$A$1:$E$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wishlist Raluca'!$A$1:$E$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="146">
   <si>
     <t>Image</t>
   </si>
@@ -238,9 +238,6 @@
     <t>Reserved / bought</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>https://www.lego.com/en-ch/product/succulents-10309</t>
   </si>
   <si>
@@ -356,6 +353,132 @@
   </si>
   <si>
     <t>Curs Lavaux</t>
+  </si>
+  <si>
+    <t>Paint by numbers: Mesmerizing Aurora</t>
+  </si>
+  <si>
+    <t>https://numberartist.com/cdn/shop/files/mesmerizing-aurora-paint-by-numbers-kit-907961.png?v=1762463094&amp;width=1000</t>
+  </si>
+  <si>
+    <t>https://numberartist.com/de-ch/products/mesmerizing-aurora?variant=44667165704409</t>
+  </si>
+  <si>
+    <t>33 CHF</t>
+  </si>
+  <si>
+    <t>Paint by numbers: Rosa Pfingstrose Perfektion</t>
+  </si>
+  <si>
+    <t>Paint by numbers: Bounty-Zitronen</t>
+  </si>
+  <si>
+    <t>https://numberartist.com/cdn/shop/files/bounty-lemons-paint-by-numbers-kit-493862.png?v=1762463141&amp;width=700</t>
+  </si>
+  <si>
+    <t>https://numberartist.com/cdn/shop/files/pink-peony-perfection-paint-by-numbers-kit-110785.png?v=1762462534&amp;width=1000</t>
+  </si>
+  <si>
+    <t>https://numberartist.com/de-ch/products/pink-peony-perfection?_pos=1&amp;_psq=rosa+p&amp;_ss=e&amp;_v=1.0&amp;variant=44578405449945</t>
+  </si>
+  <si>
+    <t>29 CHF</t>
+  </si>
+  <si>
+    <t>https://numberartist.com/de-ch/products/bounty-lemons?_pos=1&amp;_sid=86c377807&amp;_ss=r&amp;variant=44676599775449</t>
+  </si>
+  <si>
+    <t>Aoking UNISEX - Rucksack - mint</t>
+  </si>
+  <si>
+    <t>https://img01.ztat.net/article/spp-media-p1/7159dbca68b04c718d40c67fafdd50bf/ef7a699aa48246abb0ed5e232200cd0f.jpg?imwidth=1800&amp;filter=packshot</t>
+  </si>
+  <si>
+    <t>https://www.zalando.ch/aoking-unisex-tagesrucksack-mint-ao054h00r-m11.html</t>
+  </si>
+  <si>
+    <t>75 CHF</t>
+  </si>
+  <si>
+    <t>https://img01.ztat.net/article/spp-media-p1/235b7c22d6a33c15b73caa33d1b19c54/4078fdf4f674415cb9a04154aa7ce896.jpg?imwidth=1800</t>
+  </si>
+  <si>
+    <t>CHUCK TAYLOR ALL STAR OX UNISEX - Trainers - optical white</t>
+  </si>
+  <si>
+    <t>43 CHF</t>
+  </si>
+  <si>
+    <t>Yoga Mat 190 x 80 x 1.5</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61n0ic+2JgL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B0CGRR3YGS?ref=cm_sw_r_cso_cp_apin_dp_0VX5ZW884SWX0RFYYQ1Q&amp;ref_=cm_sw_r_cso_cp_apin_dp_0VX5ZW884SWX0RFYYQ1Q&amp;social_share=cm_sw_r_cso_cp_apin_dp_0VX5ZW884SWX0RFYYQ1Q&amp;badgeInsights=insights&amp;th=1&amp;psc=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Piece Wrist Weights </t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61bXPukS9AL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B08XYWQC7L?ref=cm_sw_r_cso_cp_apin_dp_RG4TQW5DYMGRZ7FZETZT&amp;ref_=cm_sw_r_cso_cp_apin_dp_RG4TQW5DYMGRZ7FZETZT&amp;social_share=cm_sw_r_cso_cp_apin_dp_RG4TQW5DYMGRZ7FZETZT&amp;badgeInsights=insights&amp;th=1&amp;psc=1</t>
+  </si>
+  <si>
+    <t>19 EUR</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71ntSwMHajL._AC_SL1080_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B0D1GK3K7Z?ref=cm_sw_r_cso_cp_apin_dp_HHC098Y6077VFP2W10XW&amp;ref_=cm_sw_r_cso_cp_apin_dp_HHC098Y6077VFP2W10XW&amp;social_share=cm_sw_r_cso_cp_apin_dp_HHC098Y6077VFP2W10XW&amp;th=1</t>
+  </si>
+  <si>
+    <t>30 EUR</t>
+  </si>
+  <si>
+    <t>Paint by numbers</t>
+  </si>
+  <si>
+    <t>OLAPLEX NO.7 BONDING OIL - Hair treatment</t>
+  </si>
+  <si>
+    <t>https://www.zalando.ch/olaplex-no7-bonding-oil-haarpflege-olh34h00q-s11.html</t>
+  </si>
+  <si>
+    <t>https://img01.ztat.net/article/spp-media-p1/486bbb83ed57465a89bf7a3d0ec3fddf/7448a9e404d34edb9c1149b7a34d9ba1.jpg?imwidth=1800&amp;filter=packshot</t>
+  </si>
+  <si>
+    <t>COLOR WOW DREAM COAT EXTRA STRENGTH - Hairspray</t>
+  </si>
+  <si>
+    <t>47 CHF</t>
+  </si>
+  <si>
+    <t>https://img01.ztat.net/article/spp-media-p1/b66bf6dde284454fadada99594221b1b/2d5f94790cd04b34a613504efa4ce63a.jpg?imwidth=1800&amp;filter=packshot</t>
+  </si>
+  <si>
+    <t>https://www.zalando.ch/color-wow-dream-coat-extra-strength-styling-c3z31h00u-s11.html</t>
+  </si>
+  <si>
+    <t>Coco &amp; Eve LIKE A VIRGIN HYDRATING &amp; DETANGLING LEAVE-IN CONDITIONER - Conditioner</t>
+  </si>
+  <si>
+    <t>https://img01.ztat.net/article/spp-media-p1/1052cd762ebd45168baa150b1c870c4f/16d0a4a6dfa7427190934f4beba9848d.jpg?imwidth=1800&amp;filter=packshot</t>
+  </si>
+  <si>
+    <t>24 CHF</t>
+  </si>
+  <si>
+    <t>https://www.zalando.ch/coco-and-eve-like-a-virgin-hydrating-and-detangling-leave-in-conditioner-conditioner-0-c1o34h001-s11.html</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>https://www.zalando.ch/converse-all-star-ox-sneaker-optical-white.html</t>
   </si>
 </sst>
 </file>
@@ -445,13 +568,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -790,15 +913,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="53.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -834,10 +958,10 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -849,6 +973,9 @@
       </c>
       <c r="D3" t="s">
         <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -865,7 +992,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -882,7 +1009,7 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -899,7 +1026,7 @@
         <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -916,7 +1043,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -933,7 +1060,7 @@
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -950,7 +1077,7 @@
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -967,7 +1094,7 @@
         <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -984,10 +1111,10 @@
         <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>44</v>
       </c>
@@ -1001,10 +1128,10 @@
         <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
@@ -1018,10 +1145,10 @@
         <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
@@ -1035,7 +1162,7 @@
         <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1052,7 +1179,7 @@
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1069,145 +1196,157 @@
         <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
         <v>76</v>
       </c>
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
       <c r="D18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="E18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
         <v>93</v>
       </c>
-      <c r="B20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="C21" t="s">
         <v>83</v>
       </c>
-      <c r="B21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" t="s">
-        <v>80</v>
-      </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" t="s">
         <v>97</v>
       </c>
-      <c r="C22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" t="s">
-        <v>86</v>
-      </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1215,31 +1354,185 @@
         <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>102</v>
+      <c r="A27" t="s">
+        <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E27" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
+  <autoFilter ref="A1:E25" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>
@@ -1251,4 +1544,10 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{ff6dbec8-95a8-4638-9f5f-bd076536645c}" enabled="1" method="Standard" siteId="{5dbf1add-202a-4b8d-815b-bf0fb024e033}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/wishlist_raluca.xlsx
+++ b/wishlist_raluca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Downloads/wishlist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0177418F-3676-4CA7-B352-55EB2C9C7281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{0177418F-3676-4CA7-B352-55EB2C9C7281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37258ABC-C46D-456A-A001-A07BE6DC1363}"/>
   <bookViews>
-    <workbookView xWindow="28590" yWindow="0" windowWidth="29010" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="43200" windowHeight="17145" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Wishlist Raluca" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="150">
   <si>
     <t>Image</t>
   </si>
@@ -479,6 +479,18 @@
   </si>
   <si>
     <t>https://www.zalando.ch/converse-all-star-ox-sneaker-optical-white.html</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/dp/B078XXP3RH?ref=cm_sw_r_cso_cp_apin_dp_CR2DCDFB6A4A5F0S67N2&amp;social_share=cm_sw_r_cso_cp_apin_dp_CR2DCDFB6A4A5F0S67N2&amp;badgeInsights=bestseller-insights&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81NlaW85aBL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Gantere 2kg</t>
+  </si>
+  <si>
+    <t>18 EUR</t>
   </si>
 </sst>
 </file>
@@ -913,10 +925,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,6 +1541,20 @@
       </c>
       <c r="D38" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/wishlist_raluca.xlsx
+++ b/wishlist_raluca.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5351de14e4a67c9/Downloads/wishlist/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{0177418F-3676-4CA7-B352-55EB2C9C7281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37258ABC-C46D-456A-A001-A07BE6DC1363}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF49A57-7AB7-4C9F-AF60-18EE0B321C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="43200" windowHeight="17145" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="29010" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Wishlist Raluca" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wishlist Raluca'!$A$1:$E$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wishlist Raluca'!$A$1:$E$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="150">
   <si>
     <t>Image</t>
   </si>
@@ -235,9 +235,6 @@
     <t>18.02 EUR</t>
   </si>
   <si>
-    <t>Reserved / bought</t>
-  </si>
-  <si>
     <t>https://www.lego.com/en-ch/product/succulents-10309</t>
   </si>
   <si>
@@ -491,6 +488,9 @@
   </si>
   <si>
     <t>18 EUR</t>
+  </si>
+  <si>
+    <t>SKIP (skip: hide from display) / Y (reserved: show faded out) / GAP (formatting gap)</t>
   </si>
 </sst>
 </file>
@@ -928,7 +928,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,7 +936,7 @@
     <col min="1" max="1" width="58.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="53.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -953,7 +953,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -970,7 +970,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -987,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1004,7 +1004,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1021,7 +1021,7 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1038,7 +1038,7 @@
         <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1055,7 +1055,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1089,7 +1089,7 @@
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1106,7 +1106,7 @@
         <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -1123,7 +1123,7 @@
         <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -1140,7 +1140,7 @@
         <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -1157,7 +1157,7 @@
         <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1174,7 +1174,7 @@
         <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1191,7 +1191,7 @@
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1208,357 +1208,378 @@
         <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
         <v>67</v>
       </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
       <c r="E17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
         <v>76</v>
       </c>
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
       <c r="E18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
         <v>78</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>79</v>
       </c>
-      <c r="D19" t="s">
-        <v>80</v>
-      </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
         <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
         <v>85</v>
       </c>
-      <c r="D22" t="s">
-        <v>86</v>
-      </c>
       <c r="E22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="s">
         <v>88</v>
       </c>
-      <c r="D23" t="s">
-        <v>89</v>
-      </c>
       <c r="E23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" t="s">
         <v>97</v>
       </c>
-      <c r="D24" t="s">
-        <v>98</v>
-      </c>
       <c r="E24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" t="s">
         <v>104</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>105</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>106</v>
-      </c>
-      <c r="D26" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>108</v>
       </c>
-      <c r="B27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" t="s">
         <v>112</v>
       </c>
-      <c r="D27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" t="s">
-        <v>113</v>
+      <c r="E28" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" t="s">
         <v>115</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>116</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>117</v>
-      </c>
-      <c r="D29" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" t="s">
         <v>120</v>
       </c>
-      <c r="B30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>122</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>123</v>
-      </c>
-      <c r="C31" t="s">
-        <v>124</v>
       </c>
       <c r="D31" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="s">
         <v>125</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>126</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>127</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>132</v>
       </c>
-      <c r="B33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" t="s">
         <v>133</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>135</v>
       </c>
-      <c r="C34" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" t="s">
         <v>136</v>
       </c>
-      <c r="B35" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>139</v>
       </c>
-      <c r="D35" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>140</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s">
         <v>141</v>
       </c>
-      <c r="C36" t="s">
-        <v>143</v>
-      </c>
-      <c r="D36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" t="s">
-        <v>70</v>
-      </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" t="s">
         <v>148</v>
       </c>
-      <c r="B39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C39" t="s">
-        <v>146</v>
-      </c>
-      <c r="D39" t="s">
-        <v>149</v>
+      <c r="E39" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E25" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
+  <autoFilter ref="A1:E39" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>

--- a/wishlist_raluca.xlsx
+++ b/wishlist_raluca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF49A57-7AB7-4C9F-AF60-18EE0B321C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D758ED01-8E11-4F2B-AD45-1C5F7E26B1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="29010" windowHeight="23280" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="23385" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Wishlist Raluca" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="158">
   <si>
     <t>Image</t>
   </si>
@@ -385,15 +385,6 @@
     <t>https://numberartist.com/de-ch/products/bounty-lemons?_pos=1&amp;_sid=86c377807&amp;_ss=r&amp;variant=44676599775449</t>
   </si>
   <si>
-    <t>Aoking UNISEX - Rucksack - mint</t>
-  </si>
-  <si>
-    <t>https://img01.ztat.net/article/spp-media-p1/7159dbca68b04c718d40c67fafdd50bf/ef7a699aa48246abb0ed5e232200cd0f.jpg?imwidth=1800&amp;filter=packshot</t>
-  </si>
-  <si>
-    <t>https://www.zalando.ch/aoking-unisex-tagesrucksack-mint-ao054h00r-m11.html</t>
-  </si>
-  <si>
     <t>75 CHF</t>
   </si>
   <si>
@@ -491,6 +482,39 @@
   </si>
   <si>
     <t>SKIP (skip: hide from display) / Y (reserved: show faded out) / GAP (formatting gap)</t>
+  </si>
+  <si>
+    <t>CALVIN KLEIN ETERNITY FOR HER EAU DE PARFUM</t>
+  </si>
+  <si>
+    <t>42 CHF</t>
+  </si>
+  <si>
+    <t>https://www.zalando.ch/calvin-klein-fragrances-calvin-klein-eternity-for-her-eau-de-parfum-eau-de-parfum-c4p31i005-s11.html</t>
+  </si>
+  <si>
+    <t>https://img01.ztat.net/article/spp-media-p1/82b5fb685c434f4cacede01af31d3d35/9f21bdd22d9f44938725464b8b8524c2.jpg?imwidth=1800&amp;filter=packshot</t>
+  </si>
+  <si>
+    <t>Givenchy Ange ou Démon (Etrange)</t>
+  </si>
+  <si>
+    <t>https://static01.galaxus.com/productimages/4/9/4/3/1/8/8/1/8/0/4/5/6/0/8/6/2/3/2/01993825-56b5-778a-b12e-e3be33af0bf6_2880.avif</t>
+  </si>
+  <si>
+    <t>https://www.galaxus.ch/en/s6/product/givenchy-ange-ou-dmon-etrange-eau-de-parfum-100-ml-fragrances-22870522</t>
+  </si>
+  <si>
+    <t>65 CHF</t>
+  </si>
+  <si>
+    <t>https://www.zalando.ch/aoking-tagesrucksack-mint-ao054h00o-m11.html</t>
+  </si>
+  <si>
+    <t>https://img01.ztat.net/article/spp-media-p1/5b94485402654a06821e70f335da2a99/8c5feb95558746c2b5143245f8749a1d.jpg?imwidth=1800</t>
+  </si>
+  <si>
+    <t>Aoking Tagesrucksack - mint</t>
   </si>
 </sst>
 </file>
@@ -925,10 +949,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,7 +977,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -970,7 +994,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -987,7 +1011,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1004,7 +1028,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1021,7 +1045,7 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1038,7 +1062,7 @@
         <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1055,7 +1079,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1072,7 +1096,7 @@
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1089,7 +1113,7 @@
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1106,7 +1130,7 @@
         <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -1123,7 +1147,7 @@
         <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -1140,7 +1164,7 @@
         <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -1157,7 +1181,7 @@
         <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1174,7 +1198,7 @@
         <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1191,7 +1215,7 @@
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1208,7 +1232,7 @@
         <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1225,7 +1249,7 @@
         <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1239,7 +1263,7 @@
         <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1256,7 +1280,7 @@
         <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1273,7 +1297,7 @@
         <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1290,7 +1314,7 @@
         <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1307,7 +1331,7 @@
         <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1324,7 +1348,7 @@
         <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1341,7 +1365,7 @@
         <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1358,7 +1382,7 @@
         <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1403,134 +1427,134 @@
         <v>112</v>
       </c>
       <c r="E28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" t="s">
         <v>114</v>
-      </c>
-      <c r="B29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
         <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" t="s">
         <v>124</v>
       </c>
-      <c r="B32" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" t="s">
-        <v>127</v>
-      </c>
       <c r="E32" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D34" t="s">
         <v>112</v>
       </c>
       <c r="E34" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" t="s">
         <v>135</v>
       </c>
-      <c r="B35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35" t="s">
-        <v>138</v>
-      </c>
       <c r="D35" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E35" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" t="s">
         <v>139</v>
       </c>
-      <c r="B36" t="s">
-        <v>140</v>
-      </c>
-      <c r="C36" t="s">
-        <v>142</v>
-      </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E36" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1563,19 +1587,47 @@
     </row>
     <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B39" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="B40" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" t="s">
         <v>148</v>
       </c>
-      <c r="E39" t="s">
-        <v>143</v>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/wishlist_raluca.xlsx
+++ b/wishlist_raluca.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D758ED01-8E11-4F2B-AD45-1C5F7E26B1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6CF9BE-3631-4742-9042-BBFC6F5FB398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="23385" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Wishlist Raluca" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="158">
   <si>
     <t>Image</t>
   </si>
@@ -952,7 +952,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,6 +1443,9 @@
       <c r="D29" t="s">
         <v>114</v>
       </c>
+      <c r="E29" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1457,6 +1460,9 @@
       <c r="D30" t="s">
         <v>117</v>
       </c>
+      <c r="E30" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1615,6 +1621,9 @@
       <c r="D40" t="s">
         <v>148</v>
       </c>
+      <c r="E40" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -1628,6 +1637,9 @@
       </c>
       <c r="D41" t="s">
         <v>154</v>
+      </c>
+      <c r="E41" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
